--- a/data/case1/9/Qlm1_1.xlsx
+++ b/data/case1/9/Qlm1_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.07896670570175246</v>
+        <v>-0.09875120888855804</v>
       </c>
       <c r="B1" s="0">
-        <v>0.078482732174336434</v>
+        <v>0.098379880524163354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.083433628202005394</v>
+        <v>-0.080065188551098565</v>
       </c>
       <c r="B2" s="0">
-        <v>0.082260594720624525</v>
+        <v>0.078849211306879496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.032545847941614525</v>
+        <v>-0.029134293174738701</v>
       </c>
       <c r="B3" s="0">
-        <v>0.03224938383505993</v>
+        <v>0.028816815729847178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.024249383899645593</v>
+        <v>-0.020816815779509668</v>
       </c>
       <c r="B4" s="0">
-        <v>0.023990659337703946</v>
+        <v>0.02053739502813734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.020990659366744602</v>
+        <v>-0.017537395050394977</v>
       </c>
       <c r="B5" s="0">
-        <v>0.020126555058090467</v>
+        <v>0.01660129819719014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.018964363991882394</v>
+        <v>-0.006837550604929632</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.019069678264788337</v>
+        <v>0.0064830188177165127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.029069678184192149</v>
+        <v>0.0035169811203581425</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.029093789022747618</v>
+        <v>-0.0035994150193703334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0057136753215298874</v>
+        <v>0.013599414957838007</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0057117320680664108</v>
+        <v>-0.013744724093931904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0037117320882451565</v>
+        <v>0.01574472407898897</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0037108524269235943</v>
+        <v>-0.015863564466510827</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0017108524471840525</v>
+        <v>0.017863564453652003</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0017112788460806883</v>
+        <v>-0.017870508208996938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0012887211263921117</v>
+        <v>0.020870508190894199</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0012892520591423207</v>
+        <v>-0.02088402653095045</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0047892520280625739</v>
+        <v>0.024384026510830825</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0048190456324497255</v>
+        <v>-0.02449896974485366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0083190456024331283</v>
+        <v>-0.017169258079960947</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0083515809090677351</v>
+        <v>0.017081532636124663</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.016351580846905911</v>
+        <v>-0.0090815326778033167</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.016407948987868792</v>
+        <v>0.0090529121633702303</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.017407948977796295</v>
+        <v>-0.0080529121662946679</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.017485013413151229</v>
+        <v>0.0080344353928110124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.019485013397315676</v>
+        <v>-0.0060344354017747293</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.019800755433721839</v>
+        <v>0.0060034292487909369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.021800755421074847</v>
+        <v>-0.0040034292583026598</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.021931811931213296</v>
+        <v>0.0039999999790909513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016103345412847858</v>
+        <v>-0.012314692007223016</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091405994465902</v>
+        <v>0.01227189084172764</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091406024376194</v>
+        <v>-0.0082718908648389267</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016408884176322</v>
+        <v>0.0079781463607968561</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080164089161858243</v>
+        <v>-0.0039781463852044396</v>
       </c>
       <c r="B20" s="0">
-        <v>0.008005664696662862</v>
+        <v>0.0039059698612256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056647290445113</v>
+        <v>9.4030114191845371e-05</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999673483444</v>
+        <v>-0.0001884016048290249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045714746813386498</v>
+        <v>-0.045714918158648032</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045500792249937305</v>
+        <v>0.045500785474269279</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500792293919119</v>
+        <v>-0.040500785508241322</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099327714741229</v>
+        <v>0.040099361977270043</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099327872147299</v>
+        <v>-0.020099362098331852</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999840456972</v>
+        <v>0.019999999877229335</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.037090919073140327</v>
+        <v>-0.0077637476097240921</v>
       </c>
       <c r="B25" s="0">
-        <v>0.037038920998277547</v>
+        <v>0.0077535004045365952</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.034538921025729863</v>
+        <v>-0.0052535004248834838</v>
       </c>
       <c r="B26" s="0">
-        <v>0.034474952252077529</v>
+        <v>0.0052424388180902781</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.03197495228057301</v>
+        <v>-0.0027424388385717258</v>
       </c>
       <c r="B27" s="0">
-        <v>0.03161462992256947</v>
+        <v>0.0026876634163399693</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.02961462995134756</v>
+        <v>-0.00068766343420545439</v>
       </c>
       <c r="B28" s="0">
-        <v>0.02938754927589482</v>
+        <v>0.00066196189344935874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.02238754934369247</v>
+        <v>0.0063380380607487297</v>
       </c>
       <c r="B29" s="0">
-        <v>0.022334715290358353</v>
+        <v>-0.0063404009143841478</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021168599821668188</v>
+        <v>0.042255127970753925</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02102247748026187</v>
+        <v>-0.042596520634190949</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022477551867141</v>
+        <v>0.045470658721100676</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001105015816862</v>
+        <v>-0.045593442404589624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040011051097081918</v>
+        <v>-0.004001117499829121</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999949659383</v>
+        <v>0.0039999999768625116</v>
       </c>
     </row>
   </sheetData>
